--- a/xlsx/蓋亞那_intext.xlsx
+++ b/xlsx/蓋亞那_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法國</t>
   </si>
   <si>
-    <t>政策_政策_美國_蓋亞那</t>
+    <t>体育运动_体育运动_南非_蓋亞那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
